--- a/SimoniDoorsInventory.App/Assets/ExcelTemplates/OrderDetailsTemplate.xlsx
+++ b/SimoniDoorsInventory.App/Assets/ExcelTemplates/OrderDetailsTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porto\GitHub\SimoniDoorsInventory\SimoniDoorsInventory.App\Assets\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CEF45A-1445-46B6-A582-7214B959D9E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A744D774-0E6E-4A83-95B0-C650C54EBD6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{42EB0764-920D-49E8-AB54-D201E283A8C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42EB0764-920D-49E8-AB54-D201E283A8C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,14 +72,14 @@
     <t>Κάσα</t>
   </si>
   <si>
-    <t>Παρατηρήσεις</t>
+    <t>Μέτρα Φύλλου</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,34 +106,22 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -178,55 +166,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -244,6 +383,387 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -264,8 +784,15 @@
       </font>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -275,173 +802,27 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,21 +838,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E518612-D51F-42C0-B6C2-EE2F1BDE54D3}" name="Table1" displayName="Table1" ref="A13:J26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A13:J26" xr:uid="{8B108689-281F-4652-8591-2CF1A2F06571}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E518612-D51F-42C0-B6C2-EE2F1BDE54D3}" name="Table1" displayName="Table1" ref="A12:J25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A12:J25" xr:uid="{8B108689-281F-4652-8591-2CF1A2F06571}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FDD5A13C-1B8F-41CF-9308-ACB5DAF64644}" name="Πόρτα #" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9405AF13-3243-4076-BE2E-173A52BE0DC3}" name="Κατηγορία" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F01CD538-1A52-4EED-9C33-06FB06AB7F34}" name="Επένδυση" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8B2CD927-A0BB-4B13-9F71-CEF1C46596FB}" name="Σχέδιο" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{723A475A-CBFD-459A-9337-8AD4FA6FC9DB}" name="Αξεσουάρ" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{512AE8B5-C78A-4496-BF34-3AEE730BA113}" name="Άνοιγμα" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{4730B7A7-EB8B-4272-B006-F1C7942615D9}" name="Πλάτος" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{236F0937-F07E-4813-9605-F66C4A3E5D41}" name="Ύψος" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{5E324F41-871B-4CBE-91AC-90D1639AA319}" name="Κάσα" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{0AE8E971-3A99-4D23-9664-5A7555B7CD4B}" name="Παρατηρήσεις" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FDD5A13C-1B8F-41CF-9308-ACB5DAF64644}" name="Πόρτα #" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9405AF13-3243-4076-BE2E-173A52BE0DC3}" name="Κατηγορία" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F01CD538-1A52-4EED-9C33-06FB06AB7F34}" name="Επένδυση" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8B2CD927-A0BB-4B13-9F71-CEF1C46596FB}" name="Σχέδιο" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{723A475A-CBFD-459A-9337-8AD4FA6FC9DB}" name="Αξεσουάρ" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{512AE8B5-C78A-4496-BF34-3AEE730BA113}" name="Άνοιγμα" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{4730B7A7-EB8B-4272-B006-F1C7942615D9}" name="Πλάτος" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{236F0937-F07E-4813-9605-F66C4A3E5D41}" name="Ύψος" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5E324F41-871B-4CBE-91AC-90D1639AA319}" name="Κάσα" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{0AE8E971-3A99-4D23-9664-5A7555B7CD4B}" name="Μέτρα Φύλλου" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -772,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7C0F27-E829-471F-BC12-281F9CDAECA6}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,121 +1174,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A3:F3"/>
